--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3655\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4579B7C8-DD1E-4CAB-BC97-C5EA6924D8C1}"/>
+  <xr:revisionPtr revIDLastSave="460" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87C9C3D8-41F1-4CBB-95CA-74094F9A8C13}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="115">
   <si>
     <t>改定履歴</t>
   </si>
@@ -590,12 +590,6 @@
     <t>論理削除フラグ</t>
   </si>
   <si>
-    <t>deleted_flag</t>
-  </si>
-  <si>
-    <t>DEFAULT 0</t>
-  </si>
-  <si>
     <t>作成日時</t>
   </si>
   <si>
@@ -626,22 +620,25 @@
     <t>ファイル送信制御フラグ</t>
   </si>
   <si>
-    <t>suppression_flag</t>
+    <t>is_suppression</t>
   </si>
   <si>
-    <t>1.ファイル送信不可</t>
+    <t>1:ファイル送信不可</t>
   </si>
   <si>
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
-    <t>direct_chat_flag</t>
+    <t>is_direct_chat</t>
   </si>
   <si>
-    <t>1.ダイレクトチャット</t>
+    <t>1:ダイレクトチャット</t>
   </si>
   <si>
     <t>作成者id</t>
+  </si>
+  <si>
+    <t>created_user_id</t>
   </si>
   <si>
     <t>FK</t>
@@ -659,16 +656,13 @@
     <t>usersテーブルとchat_roomテーブルの中間テーブル</t>
   </si>
   <si>
-    <t>チャットルームエントリーid</t>
-  </si>
-  <si>
-    <t>chat_room_entry_id</t>
+    <t>PK, FK</t>
   </si>
   <si>
     <t>ユーザー参加日時</t>
   </si>
   <si>
-    <t>participate_at</t>
+    <t>participated_at</t>
   </si>
   <si>
     <t>posts</t>
@@ -687,9 +681,6 @@
   </si>
   <si>
     <t>message</t>
-  </si>
-  <si>
-    <t>text</t>
   </si>
   <si>
     <t>添付ファイル名</t>
@@ -731,7 +722,7 @@
     <t>完了フラグ</t>
   </si>
   <si>
-    <t>complete_flag</t>
+    <t>is_complete</t>
   </si>
   <si>
     <t>1.完了</t>
@@ -1016,8 +1007,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,6 +1028,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -30145,7 +30136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30166,15 +30157,15 @@
       </c>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -30185,15 +30176,15 @@
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -30204,18 +30195,18 @@
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="38"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30246,11 +30237,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30278,11 +30269,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="38"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30306,11 +30297,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="38"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30332,11 +30323,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="38"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30364,11 +30355,11 @@
       <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="38"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30390,11 +30381,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="38"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30418,11 +30409,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="38"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30444,11 +30435,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="38"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30472,8 +30463,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30495,8 +30486,8 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32:D32"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30520,13 +30511,13 @@
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -30537,13 +30528,13 @@
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30552,16 +30543,16 @@
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="38"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30594,7 +30585,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -30624,7 +30615,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="38"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30650,7 +30641,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="38"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30665,7 +30656,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="16">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="16"/>
@@ -30674,7 +30665,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="38"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30698,7 +30689,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="38"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30722,7 +30713,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="38"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30748,7 +30739,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="38"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30774,7 +30765,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="38"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30783,7 +30774,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>35</v>
@@ -30791,29 +30782,29 @@
       <c r="F12" s="16">
         <v>1</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
       <c r="H12" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="J12" s="20"/>
       <c r="K12" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="38"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>39</v>
@@ -30828,13 +30819,13 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="38"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>43</v>
@@ -30852,7 +30843,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="38"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
@@ -30869,7 +30860,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
@@ -30886,18 +30877,18 @@
         <v>8</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
@@ -30906,17 +30897,17 @@
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -30947,18 +30938,18 @@
       <c r="K19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="38"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="5">
         <v>1</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>52</v>
@@ -30977,18 +30968,18 @@
         <v>54</v>
       </c>
       <c r="K20" s="20"/>
-      <c r="L20" s="38"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="38"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="5">
         <v>2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>57</v>
@@ -31001,18 +30992,18 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="38"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="5">
         <v>3</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>35</v>
@@ -31020,29 +31011,29 @@
       <c r="F22" s="16">
         <v>1</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
       <c r="H22" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I22" s="20"/>
-      <c r="J22" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="J22" s="20"/>
       <c r="K22" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="38"/>
+        <v>80</v>
+      </c>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="38"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="5">
         <v>4</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>35</v>
@@ -31050,21 +31041,21 @@
       <c r="F23" s="16">
         <v>1</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
       <c r="H23" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I23" s="20"/>
-      <c r="J23" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="J23" s="20"/>
       <c r="K23" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="38"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="5">
         <v>5</v>
       </c>
@@ -31072,7 +31063,7 @@
         <v>68</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>35</v>
@@ -31080,29 +31071,29 @@
       <c r="F24" s="16">
         <v>1</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
       <c r="H24" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I24" s="20"/>
-      <c r="J24" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="J24" s="20"/>
       <c r="K24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="38"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="5">
         <v>6</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>52</v>
@@ -31115,22 +31106,22 @@
         <v>53</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
-      <c r="L25" s="38"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="5">
         <v>7</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>52</v>
@@ -31143,22 +31134,22 @@
         <v>53</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="38"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="38"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="5">
         <v>8</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>39</v>
@@ -31171,15 +31162,15 @@
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
       <c r="K27" s="34"/>
-      <c r="L27" s="38"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="38"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="5">
         <v>9</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>43</v>
@@ -31195,10 +31186,10 @@
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
-      <c r="L28" s="38"/>
+      <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="38"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
       <c r="D29" s="26"/>
@@ -31209,14 +31200,14 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
-      <c r="L29" s="38"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
@@ -31227,25 +31218,25 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
-      <c r="L30" s="38"/>
+      <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="50"/>
       <c r="D31" s="50"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
@@ -31254,17 +31245,17 @@
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
       <c r="D32" s="50"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="38"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
@@ -31295,18 +31286,18 @@
       <c r="K33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="38"/>
+      <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="38"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="5">
         <v>1</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>52</v>
@@ -31318,199 +31309,199 @@
       <c r="H34" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="I34" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="20"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="38"/>
+      <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="38"/>
-      <c r="B35" s="5">
+      <c r="A35" s="45"/>
+      <c r="B35" s="32">
         <v>2</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="13" t="s">
+      <c r="C35" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="37">
         <v>11</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="18" t="s">
+      <c r="G35" s="35"/>
+      <c r="H35" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="38"/>
+      <c r="I35" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="38"/>
-      <c r="B36" s="32">
+      <c r="A36" s="45"/>
+      <c r="B36" s="5">
         <v>3</v>
       </c>
-      <c r="C36" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="37">
-        <v>11</v>
-      </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="40" t="s">
+      <c r="C36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="38"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="5">
-        <v>4</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="45"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="38"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="38"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="41"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="30"/>
       <c r="G38" s="29"/>
-      <c r="H38" s="36"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
-      <c r="L38" s="38"/>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="38"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>97</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B40" s="50"/>
       <c r="C40" s="50"/>
       <c r="D40" s="50"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="45"/>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
+      <c r="L41" s="45"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="38"/>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="38"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="16">
+        <v>11</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" s="20"/>
+      <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A43" s="38"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>98</v>
@@ -31519,28 +31510,24 @@
         <v>99</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F43" s="16">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
       <c r="K43" s="20"/>
-      <c r="L43" s="38"/>
+      <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A44" s="38"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>100</v>
@@ -31549,10 +31536,10 @@
         <v>101</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="F44" s="16">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="18" t="s">
@@ -31561,102 +31548,104 @@
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
-      <c r="L44" s="38"/>
+      <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="38"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F45" s="16">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="20"/>
+      <c r="I45" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
-      <c r="L45" s="38"/>
+      <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="38"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F46" s="16">
-        <v>11</v>
-      </c>
-      <c r="G46" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="20">
+        <v>0</v>
+      </c>
       <c r="H46" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="I46" s="20"/>
       <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="38"/>
+      <c r="K46" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="38"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F47" s="16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L47" s="38"/>
+      <c r="I47" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="45"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A48" s="38"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>52</v>
@@ -31669,220 +31658,218 @@
         <v>53</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="38"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="45"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A49" s="38"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="5">
-        <v>7</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="16">
-        <v>11</v>
-      </c>
-      <c r="G49" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="34"/>
       <c r="H49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J49" s="20"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="38"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A50" s="38"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="5">
-        <v>8</v>
-      </c>
-      <c r="C50" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="33" t="s">
-        <v>72</v>
+      <c r="D50" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="34"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="20"/>
       <c r="H50" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="38"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A51" s="38"/>
-      <c r="B51" s="5">
-        <v>9</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="38"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="45"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="45"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C53" s="50"/>
       <c r="D53" s="50"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="38"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>106</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B54" s="50"/>
       <c r="C54" s="50"/>
       <c r="D54" s="50"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="45"/>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
+      <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A56" s="38"/>
-      <c r="B56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="38"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="16">
+        <v>11</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" s="20"/>
+      <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A57" s="38"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="E57" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F57" s="16">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I57" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
       <c r="K57" s="20"/>
-      <c r="L57" s="38"/>
+      <c r="L57" s="45"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A58" s="38"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="E58" s="13" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="F58" s="16">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="18" t="s">
@@ -31891,154 +31878,156 @@
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
-      <c r="L58" s="38"/>
+      <c r="L58" s="45"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A59" s="38"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="5">
-        <v>3</v>
-      </c>
-      <c r="C59" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="16">
-        <v>11</v>
-      </c>
+      <c r="E59" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="16"/>
       <c r="G59" s="20"/>
-      <c r="H59" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="H59" s="18"/>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
-      <c r="L59" s="38"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A60" s="38"/>
+      <c r="L59" s="45"/>
+    </row>
+    <row r="60" spans="1:12" s="31" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A60" s="45"/>
       <c r="B60" s="5">
-        <v>4</v>
-      </c>
-      <c r="C60" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="18"/>
+      <c r="E60" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="16">
+        <v>1</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="38"/>
+      <c r="K60" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L60" s="45"/>
     </row>
     <row r="61" spans="1:12" s="31" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A61" s="38"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="5">
-        <v>5</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>115</v>
+        <v>6</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>35</v>
+        <v>75</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="F61" s="16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K61" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L61" s="38"/>
-    </row>
-    <row r="62" spans="1:12" s="31" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="38"/>
+      <c r="I61" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="45"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A62" s="45"/>
       <c r="B62" s="5">
-        <v>6</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="F62" s="16">
-        <v>11</v>
-      </c>
-      <c r="G62" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0</v>
+      </c>
       <c r="H62" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I62" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="I62" s="20"/>
       <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="38"/>
+      <c r="K62" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="45"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A63" s="38"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="46" t="s">
-        <v>69</v>
+        <v>84</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F63" s="16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L63" s="38"/>
+      <c r="I63" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="45"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A64" s="38"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>52</v>
@@ -32051,141 +32040,127 @@
         <v>53</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="38"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="45"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A65" s="38"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="5">
-        <v>9</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F65" s="16">
-        <v>11</v>
-      </c>
-      <c r="G65" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="37"/>
+      <c r="G65" s="34"/>
       <c r="H65" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I65" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J65" s="20"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="38"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="45"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A66" s="38"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="5">
-        <v>10</v>
-      </c>
-      <c r="C66" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="33" t="s">
-        <v>72</v>
+      <c r="D66" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="37"/>
-      <c r="G66" s="34"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="20"/>
       <c r="H66" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="38"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="45"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A67" s="38"/>
-      <c r="B67" s="5">
-        <v>11</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="38"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="45"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="45"/>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="45"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3655\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="460" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87C9C3D8-41F1-4CBB-95CA-74094F9A8C13}"/>
+  <xr:revisionPtr revIDLastSave="461" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B979EBBC-5B74-42F0-9D55-435884B7D032}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,7 +722,7 @@
     <t>完了フラグ</t>
   </si>
   <si>
-    <t>is_complete</t>
+    <t>is_completed</t>
   </si>
   <si>
     <t>1.完了</t>
@@ -30135,7 +30135,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="D5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -30486,8 +30486,8 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32152,6 +32152,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
@@ -32161,12 +32167,6 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3655\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="461" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B979EBBC-5B74-42F0-9D55-435884B7D032}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5EA09655-C273-4ECE-BE7F-27F1E0870F56}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="117">
   <si>
     <t>改定履歴</t>
   </si>
@@ -611,6 +611,12 @@
     <t>chat_room_id</t>
   </si>
   <si>
+    <t>チャットルーム名</t>
+  </si>
+  <si>
+    <t>chat_room_name</t>
+  </si>
+  <si>
     <t>チャット概要欄</t>
   </si>
   <si>
@@ -920,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1028,6 +1034,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -30152,61 +30159,61 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30237,11 +30244,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30269,11 +30276,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30297,11 +30304,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30323,11 +30330,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30355,11 +30362,11 @@
       <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30381,11 +30388,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30409,11 +30416,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30435,11 +30442,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30463,8 +30470,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30483,11 +30490,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30506,53 +30513,53 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30585,7 +30592,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -30615,7 +30622,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30641,7 +30648,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30665,7 +30672,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30689,7 +30696,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30713,7 +30720,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30739,7 +30746,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30765,7 +30772,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30795,7 +30802,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30819,7 +30826,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30843,7 +30850,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
@@ -30859,11 +30866,11 @@
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="27"/>
       <c r="F16" s="30"/>
       <c r="G16" s="29"/>
@@ -30876,38 +30883,38 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -30938,10 +30945,10 @@
       <c r="K19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="45"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="45"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="5">
         <v>1</v>
       </c>
@@ -30968,10 +30975,10 @@
         <v>54</v>
       </c>
       <c r="K20" s="20"/>
-      <c r="L20" s="45"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="45"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="46"/>
       <c r="B21" s="5">
         <v>2</v>
       </c>
@@ -30985,17 +30992,19 @@
         <v>57</v>
       </c>
       <c r="F21" s="16">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="45"/>
+      <c r="L21" s="46"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="5">
         <v>3</v>
       </c>
@@ -31006,34 +31015,28 @@
         <v>79</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20">
-        <v>0</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>53</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="45"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="45"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="5">
         <v>4</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>35</v>
@@ -31050,20 +31053,20 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="45"/>
+        <v>82</v>
+      </c>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="5">
         <v>5</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>35</v>
@@ -31079,49 +31082,51 @@
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="45"/>
+      <c r="K24" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="5">
         <v>6</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F25" s="16">
-        <v>11</v>
-      </c>
-      <c r="G25" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
       <c r="H25" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="I25" s="20"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="45"/>
+      <c r="K25" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="46"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="5">
         <v>7</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>52</v>
@@ -31134,374 +31139,372 @@
         <v>53</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J26" s="20"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="45"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="46"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="5">
         <v>8</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="34"/>
+      <c r="C27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="16">
+        <v>11</v>
+      </c>
+      <c r="G27" s="20"/>
       <c r="H27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="45"/>
+      <c r="I27" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="5">
         <v>9</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>43</v>
+      <c r="C28" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="20"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="45"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="46"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="45"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="5">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="46"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="27"/>
       <c r="F30" s="30"/>
       <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
-      <c r="L30" s="45"/>
+      <c r="L30" s="46"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
+        <v>2</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="45"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="5">
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="5">
         <v>1</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="16">
         <v>11</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="18" t="s">
+      <c r="G35" s="20"/>
+      <c r="H35" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="45"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="32">
+      <c r="I35" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="32">
         <v>2</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C36" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D36" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E36" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F36" s="37">
         <v>11</v>
       </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="38" t="s">
+      <c r="G36" s="35"/>
+      <c r="H36" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="45"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="5">
+      <c r="I36" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="5">
         <v>3</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="15" t="s">
+      <c r="C37" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="18" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="45"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="45"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="27"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="30"/>
       <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
-      <c r="L38" s="45"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
+        <v>2</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A42" s="46"/>
+      <c r="B42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L41" s="45"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="5">
+      <c r="L42" s="46"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A43" s="46"/>
+      <c r="B43" s="5">
         <v>1</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="16">
-        <v>11</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" s="20"/>
-      <c r="L42" s="45"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="5">
-        <v>2</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>98</v>
@@ -31510,24 +31513,28 @@
         <v>99</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F43" s="16">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="I43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="K43" s="20"/>
-      <c r="L43" s="45"/>
+      <c r="L43" s="46"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A44" s="45"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>100</v>
@@ -31539,7 +31546,7 @@
         <v>57</v>
       </c>
       <c r="F44" s="16">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="18" t="s">
@@ -31548,104 +31555,102 @@
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
-      <c r="L44" s="45"/>
+      <c r="L44" s="46"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="45"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F45" s="16">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
-      <c r="L45" s="45"/>
+      <c r="L45" s="46"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="45"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F46" s="16">
-        <v>1</v>
-      </c>
-      <c r="G46" s="20">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G46" s="20"/>
       <c r="H46" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="20"/>
+      <c r="I46" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="J46" s="20"/>
-      <c r="K46" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L46" s="45"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="46"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="45"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F47" s="16">
-        <v>11</v>
-      </c>
-      <c r="G47" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="20">
+        <v>0</v>
+      </c>
       <c r="H47" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" s="46"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A48" s="46"/>
+      <c r="B48" s="5">
+        <v>6</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="45"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A48" s="45"/>
-      <c r="B48" s="5">
-        <v>7</v>
-      </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>52</v>
@@ -31658,180 +31663,178 @@
         <v>53</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J48" s="20"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="45"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A49" s="45"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="5">
-        <v>8</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="34"/>
+        <v>7</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="16">
+        <v>11</v>
+      </c>
+      <c r="G49" s="20"/>
       <c r="H49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="45"/>
+      <c r="I49" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J49" s="20"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="46"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A50" s="45"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="5">
-        <v>9</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="20"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="34"/>
       <c r="H50" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="45"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="45"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="46"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A51" s="46"/>
+      <c r="B51" s="5">
+        <v>9</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="46"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
+        <v>2</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="46"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A55" s="45"/>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A56" s="46"/>
+      <c r="B56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L55" s="45"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A56" s="45"/>
-      <c r="B56" s="5">
+      <c r="L56" s="46"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A57" s="46"/>
+      <c r="B57" s="5">
         <v>1</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="16">
-        <v>11</v>
-      </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K56" s="20"/>
-      <c r="L56" s="45"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A57" s="45"/>
-      <c r="B57" s="5">
-        <v>2</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>106</v>
@@ -31840,36 +31843,40 @@
         <v>107</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F57" s="16">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
+      <c r="I57" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="K57" s="20"/>
-      <c r="L57" s="45"/>
+      <c r="L57" s="46"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A58" s="45"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F58" s="16">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="18" t="s">
@@ -31878,34 +31885,38 @@
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
-      <c r="L58" s="45"/>
+      <c r="L58" s="46"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A59" s="45"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="5">
-        <v>4</v>
-      </c>
-      <c r="C59" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="E59" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F59" s="16"/>
+      <c r="E59" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="16">
+        <v>11</v>
+      </c>
       <c r="G59" s="20"/>
-      <c r="H59" s="18"/>
+      <c r="H59" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
-      <c r="L59" s="45"/>
-    </row>
-    <row r="60" spans="1:12" s="31" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A60" s="45"/>
+      <c r="L59" s="46"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A60" s="46"/>
       <c r="B60" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="41" t="s">
         <v>112</v>
@@ -31913,121 +31924,115 @@
       <c r="D60" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="16">
-        <v>1</v>
-      </c>
-      <c r="G60" s="20">
-        <v>0</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="E60" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
-      <c r="K60" s="20" t="s">
+      <c r="K60" s="20"/>
+      <c r="L60" s="46"/>
+    </row>
+    <row r="61" spans="1:12" s="31" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A61" s="46"/>
+      <c r="B61" s="5">
+        <v>5</v>
+      </c>
+      <c r="C61" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="L60" s="45"/>
-    </row>
-    <row r="61" spans="1:12" s="31" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A61" s="45"/>
-      <c r="B61" s="5">
-        <v>6</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>74</v>
-      </c>
       <c r="D61" s="12" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F61" s="16">
-        <v>11</v>
-      </c>
-      <c r="G61" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0</v>
+      </c>
       <c r="H61" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I61" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="I61" s="20"/>
       <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="45"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A62" s="45"/>
+      <c r="K61" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L61" s="46"/>
+    </row>
+    <row r="62" spans="1:12" s="31" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="46"/>
       <c r="B62" s="5">
-        <v>7</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="F62" s="16">
-        <v>1</v>
-      </c>
-      <c r="G62" s="20">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G62" s="20"/>
       <c r="H62" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I62" s="20"/>
+      <c r="I62" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="J62" s="20"/>
-      <c r="K62" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L62" s="45"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="46"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A63" s="45"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>34</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F63" s="16">
-        <v>11</v>
-      </c>
-      <c r="G63" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0</v>
+      </c>
       <c r="H63" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I63" s="20" t="s">
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="46"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A64" s="46"/>
+      <c r="B64" s="5">
+        <v>8</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="45"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A64" s="45"/>
-      <c r="B64" s="5">
-        <v>9</v>
-      </c>
-      <c r="C64" s="12" t="s">
+      <c r="D64" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>52</v>
@@ -32040,133 +32045,175 @@
         <v>53</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J64" s="20"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="45"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="46"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A65" s="45"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="5">
-        <v>10</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65" s="37"/>
-      <c r="G65" s="34"/>
+        <v>9</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="16">
+        <v>11</v>
+      </c>
+      <c r="G65" s="20"/>
       <c r="H65" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="45"/>
+      <c r="I65" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" s="20"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="46"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A66" s="45"/>
+      <c r="A66" s="46"/>
       <c r="B66" s="5">
-        <v>11</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="20"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="34"/>
       <c r="H66" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="45"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="46"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="5">
+        <v>11</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="46"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="45"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
